--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O396"/>
+  <dimension ref="A1:O405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21868,6 +21868,495 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr"/>
     </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>44246.55214344907</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Turku</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>8</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H397" t="n">
+        <v>1</v>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (Backend)</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="K397" t="n">
+        <v>5700</v>
+      </c>
+      <c r="L397" t="n">
+        <v>74100</v>
+      </c>
+      <c r="M397" t="b">
+        <v>1</v>
+      </c>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Ennen koronaa oli osittainen etätyö, koronan jälkeen 100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>44246.55232758102</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>3</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H398" t="n">
+        <v>1</v>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L398" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M398" t="b">
+        <v>0</v>
+      </c>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>44246.56990268519</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Jyväskylä</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>6</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H399" t="n">
+        <v>1</v>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>WordPress / Frontend-koodari</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="K399" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L399" t="n">
+        <v>37500</v>
+      </c>
+      <c r="M399" t="b">
+        <v>1</v>
+      </c>
+      <c r="N399" t="inlineStr"/>
+      <c r="O399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>44246.58209564815</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Jyväskylä</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>21-25 v</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>21</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H400" t="n">
+        <v>1</v>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Arkkitehti</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="K400" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L400" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M400" t="b">
+        <v>1</v>
+      </c>
+      <c r="N400" t="inlineStr"/>
+      <c r="O400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>44246.58394819444</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>7</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä, backend</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="K401" t="n">
+        <v>5470</v>
+      </c>
+      <c r="L401" t="n">
+        <v>94000</v>
+      </c>
+      <c r="M401" t="b">
+        <v>1</v>
+      </c>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>44246.58876788194</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="n">
+        <v>3</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H402" t="n">
+        <v>1</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>Full stack developer</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="K402" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L402" t="n">
+        <v>66250</v>
+      </c>
+      <c r="M402" t="b">
+        <v>1</v>
+      </c>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>44246.59057026621</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Kuopio</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>9</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H403" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="K403" t="n">
+        <v>5200</v>
+      </c>
+      <c r="L403" t="n">
+        <v>65000</v>
+      </c>
+      <c r="M403" t="b">
+        <v>1</v>
+      </c>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>44246.59166526621</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>14</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H404" t="n">
+        <v>1</v>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Projektipäällikkö</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="K404" t="n">
+        <v>6400</v>
+      </c>
+      <c r="L404" t="n">
+        <v>102000</v>
+      </c>
+      <c r="M404" t="b">
+        <v>1</v>
+      </c>
+      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>44246.60321177083</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>15</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="H405" t="n">
+        <v>1</v>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Frontend &amp; UX</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>Optiot</t>
+        </is>
+      </c>
+      <c r="M405" t="b">
+        <v>0</v>
+      </c>
+      <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N411"/>
+  <dimension ref="A1:N412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30-35 v</t>
+          <t>31-35 v</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -21441,6 +21441,54 @@
       <c r="M411" t="inlineStr"/>
       <c r="N411" t="inlineStr"/>
     </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>44246.62593082176</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Turku</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>9</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>1</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Full-stack ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3900</v>
+      </c>
+      <c r="K412" t="n">
+        <v>52000</v>
+      </c>
+      <c r="L412" t="b">
+        <v>0</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N412"/>
+  <dimension ref="A1:N417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21489,6 +21489,282 @@
       <c r="M412" t="inlineStr"/>
       <c r="N412" t="inlineStr"/>
     </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>44246.62923952546</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>14</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>1</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Senior consultant</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J413" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K413" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L413" t="b">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>Sulava</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>44246.63462665509</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Pori</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>8</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>1</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Tech Lead</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>5080</v>
+      </c>
+      <c r="K414" t="n">
+        <v>65000</v>
+      </c>
+      <c r="L414" t="b">
+        <v>0</v>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>Iso konsulttitalo</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>Sijainti Pori, mutta etätöitä 100%. Varsinainen positio Tampere - Helsinki. Edut aika huonot, perusjutut. Työ itsessään aika masentavaa. Seuraavaksi varmaan freelance/yrittäjyys.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>44246.64167922454</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>14</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>1</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Ohjelmistotestaaja</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J415" t="n">
+        <v>4100</v>
+      </c>
+      <c r="K415" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L415" t="b">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>44246.64923311343</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>muu</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>7</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>1</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Full-stack developer</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J416" t="n">
+        <v>5550</v>
+      </c>
+      <c r="K416" t="n">
+        <v>69400</v>
+      </c>
+      <c r="L416" t="b">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>44246.65296685185</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>5</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Full-stack/mobiili/design</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J417" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K417" t="n">
+        <v>90000</v>
+      </c>
+      <c r="L417" t="b">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mavericks </t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N417"/>
+  <dimension ref="A1:N418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21765,6 +21765,58 @@
       </c>
       <c r="N417" t="inlineStr"/>
     </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>44246.67002717593</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>16</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>1</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>4800</v>
+      </c>
+      <c r="K418" t="n">
+        <v>65000</v>
+      </c>
+      <c r="L418" t="b">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>Bonukset riippuu firman tuloksesta. Palkka olisi varmastikin enemmän muualla mutta uskoakseni linjassa kollegoideni kanssa.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N418"/>
+  <dimension ref="A1:N420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -21817,6 +21817,112 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>44246.67881818287</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>8</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J419" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K419" t="n">
+        <v>56200</v>
+      </c>
+      <c r="L419" t="b">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>44246.68510069444</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>16</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>1</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Mobile SW</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J420" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K420" t="n">
+        <v>95000</v>
+      </c>
+      <c r="L420" t="b">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>Mavericks</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N420"/>
+  <dimension ref="A1:N425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21923,6 +21923,276 @@
       </c>
       <c r="N420" t="inlineStr"/>
     </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>44246.68990465278</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>11</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>1</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Full stack</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J421" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K421" t="n">
+        <v>87500</v>
+      </c>
+      <c r="L421" t="b">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>Mavericks</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>44246.69036510416</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>12</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>1</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J422" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K422" t="n">
+        <v>95000</v>
+      </c>
+      <c r="L422" t="b">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>Mavericks</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>44246.69231409722</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>22</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>ohjelmistokehittäjä (backend) / arkkitehti</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J423" t="n">
+        <v>4700</v>
+      </c>
+      <c r="K423" t="n">
+        <v>58750</v>
+      </c>
+      <c r="L423" t="b">
+        <v>0</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>44246.69353475695</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>2</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>1</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>WordPress-kehittäjä</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J424" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K424" t="n">
+        <v>37500</v>
+      </c>
+      <c r="L424" t="b">
+        <v>0</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>44246.69392165509</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>5</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>1</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Data scientist</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J425" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K425" t="n">
+        <v>53750</v>
+      </c>
+      <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>Wapice</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N425"/>
+  <dimension ref="A1:N426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22193,6 +22193,60 @@
       </c>
       <c r="N425" t="inlineStr"/>
     </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>44246.70005435185</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>15</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>1</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>7500+</t>
+        </is>
+      </c>
+      <c r="K426" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L426" t="b">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N426"/>
+  <dimension ref="A1:N429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22247,6 +22247,158 @@
       <c r="M426" t="inlineStr"/>
       <c r="N426" t="inlineStr"/>
     </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>44246.70452188658</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Turku</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>13</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>1</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lead Software Engineer </t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>5500</v>
+      </c>
+      <c r="K427" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L427" t="b">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>44246.71758012731</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>15</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>1</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J428" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K428" t="n">
+        <v>76000</v>
+      </c>
+      <c r="L428" t="b">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>44246.74418030093</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>21-25 v</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>4</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>1</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Frontend ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K429" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L429" t="b">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N429"/>
+  <dimension ref="A1:O431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,11 @@
           <t>Vapaa sana</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Kk-tulot</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -556,6 +561,9 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>6916.666666666667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -608,6 +616,9 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -660,6 +671,9 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -712,6 +726,9 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>8333.333333333334</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -764,6 +781,9 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>3125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -800,7 +820,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J7" t="n">
         <v>8000</v>
       </c>
@@ -812,6 +836,9 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>8333.333333333334</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -864,6 +891,9 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>11666.66666666667</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -896,7 +926,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J9" t="n">
         <v>4250</v>
       </c>
@@ -908,6 +942,9 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -944,7 +981,11 @@
           <t>Lead developer</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J10" t="n">
         <v>4000</v>
       </c>
@@ -956,6 +997,9 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1006,6 +1050,9 @@
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>16666.66666666667</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1042,7 +1089,11 @@
           <t>Tekninen projektipäällikkö</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J12" t="n">
         <v>3550</v>
       </c>
@@ -1054,6 +1105,9 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>3697.916666666667</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1096,6 +1150,9 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>6416.666666666667</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1148,6 +1205,9 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>4750</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1200,6 +1260,9 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1252,6 +1315,9 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>4687.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1304,6 +1370,9 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>6125</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1354,6 +1423,9 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1390,7 +1462,11 @@
           <t>Backend developer</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J19" t="n">
         <v>5100</v>
       </c>
@@ -1402,6 +1478,9 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1454,6 +1533,9 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1490,7 +1572,11 @@
           <t>full-stack, project manager</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J21" t="n">
         <v>4100</v>
       </c>
@@ -1502,6 +1588,9 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1538,7 +1627,11 @@
           <t>Integration Developer</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J22" t="n">
         <v>2500</v>
       </c>
@@ -1557,6 +1650,9 @@
         <is>
           <t>Kuukausipalkkaan tulossa ihan juuri firman laajuinen pieni (muistaakseni 50 e) yleiskorotus + palkka nousee ainakin 2800 e/kk, kunhan valmistuisi.</t>
         </is>
+      </c>
+      <c r="O22" t="n">
+        <v>2604.166666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1606,6 +1702,9 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>3645.833333333333</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1658,6 +1757,9 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1694,7 +1796,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J25" t="n">
         <v>3700</v>
       </c>
@@ -1706,6 +1812,9 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1758,6 +1867,9 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1808,6 +1920,9 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>11250</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1860,6 +1975,9 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>1833.333333333333</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1916,6 +2034,9 @@
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>5052.083333333333</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1960,6 +2081,9 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>16666.66666666667</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2008,6 +2132,9 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2044,7 +2171,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J32" t="n">
         <v>4167</v>
       </c>
@@ -2056,6 +2187,9 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2108,6 +2242,9 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>5468.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2160,6 +2297,9 @@
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2196,7 +2336,11 @@
           <t>Data Developer</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J35" t="n">
         <v>5100</v>
       </c>
@@ -2208,6 +2352,9 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>5312.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2415,7 @@
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2304,7 +2452,11 @@
           <t>Vanhempi ohjelmistosuunnittelija</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J37" t="n">
         <v>4100</v>
       </c>
@@ -2316,6 +2468,9 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>4250</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2342,7 +2497,11 @@
         <v>1</v>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J38" t="n">
         <v>5200</v>
       </c>
@@ -2352,6 +2511,9 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>5750</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2404,6 +2566,9 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>6166.666666666667</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2456,6 +2621,9 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2512,6 +2680,9 @@
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2564,6 +2735,9 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2616,6 +2790,9 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>5625</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2845,9 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>3958.333333333333</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2724,6 +2904,9 @@
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>3854.166666666667</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2776,6 +2959,9 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>3083.333333333333</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2832,6 +3018,9 @@
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>5166.666666666667</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2884,6 +3073,9 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>4416.666666666667</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2920,7 +3112,11 @@
           <t>Full-stack, arkkitehti</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J49" t="n">
         <v>6500</v>
       </c>
@@ -2932,6 +3128,9 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>9583.333333333334</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,7 +3167,11 @@
           <t>ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J50" t="n">
         <v>4300</v>
       </c>
@@ -2984,6 +3187,9 @@
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>4479.166666666667</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3036,6 +3242,9 @@
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>6833.333333333333</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3072,7 +3281,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J52" t="n">
         <v>4150</v>
       </c>
@@ -3084,6 +3297,9 @@
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>4322.916666666667</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3136,6 +3352,9 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3188,6 +3407,9 @@
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>4666.666666666667</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3220,7 +3442,11 @@
           <t>arkkitehti, full-stack-kehittäjä</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J55" t="n">
         <v>4275</v>
       </c>
@@ -3235,6 +3461,9 @@
         <is>
           <t>Työskentelen toimistolla, koska täällä ei ole ketään muita. Työnantajan puolesta voisin työskennellä myös kotoa.</t>
         </is>
+      </c>
+      <c r="O55" t="n">
+        <v>5741.666666666667</v>
       </c>
     </row>
     <row r="56">
@@ -3288,6 +3517,9 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3324,7 +3556,11 @@
           <t>Senior Software Developer</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J57" t="n">
         <v>5200</v>
       </c>
@@ -3336,6 +3572,9 @@
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>5666.666666666667</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3388,6 +3627,9 @@
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3424,7 +3666,11 @@
           <t>UX-suunnittelija</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J59" t="n">
         <v>3800</v>
       </c>
@@ -3440,6 +3686,9 @@
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>3958.333333333333</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3496,6 +3745,9 @@
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3548,6 +3800,9 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3598,6 +3853,9 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
+      <c r="O62" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3654,6 +3912,9 @@
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>4875</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3710,6 +3971,9 @@
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3760,6 +4024,9 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>4531.25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3818,6 +4085,7 @@
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3854,7 +4122,11 @@
           <t>ohjelmistokehittäjä, senior, full-stack</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J67" t="n">
         <v>4600</v>
       </c>
@@ -3870,6 +4142,9 @@
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
+      <c r="O67" t="n">
+        <v>4791.666666666667</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3922,6 +4197,9 @@
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
+      <c r="O68" t="n">
+        <v>6500</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3974,6 +4252,9 @@
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
+      <c r="O69" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4022,6 +4303,9 @@
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4078,6 +4362,9 @@
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>3645.833333333333</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4130,6 +4417,9 @@
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
+      <c r="O72" t="n">
+        <v>2916.666666666667</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4182,6 +4472,9 @@
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>4375</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4234,6 +4527,9 @@
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4286,6 +4582,9 @@
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4338,6 +4637,9 @@
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>4433.333333333333</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4374,7 +4676,11 @@
           <t>Ohjelmistoarkkitehti</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J77" t="n">
         <v>5300</v>
       </c>
@@ -4386,6 +4692,9 @@
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>5583.333333333333</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4436,6 +4745,9 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>4833.333333333333</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4472,7 +4784,11 @@
           <t>Full-stack developer</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J79" t="n">
         <v>3040</v>
       </c>
@@ -4484,6 +4800,9 @@
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>3166.666666666667</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4520,7 +4839,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J80" t="n">
         <v>3900</v>
       </c>
@@ -4532,6 +4855,9 @@
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
+      <c r="O80" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4584,6 +4910,9 @@
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
+      <c r="O81" t="n">
+        <v>4666.666666666667</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4632,6 +4961,9 @@
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
+      <c r="O82" t="n">
+        <v>10416.66666666667</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4668,7 +5000,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J83" t="n">
         <v>3350</v>
       </c>
@@ -4680,6 +5016,9 @@
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>3666.666666666667</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4736,6 +5075,9 @@
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
+      <c r="O84" t="n">
+        <v>3437.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4772,7 +5114,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J85" t="n">
         <v>5500</v>
       </c>
@@ -4784,6 +5130,9 @@
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
+      <c r="O85" t="n">
+        <v>5666.666666666667</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4840,6 +5189,9 @@
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
+      <c r="O86" t="n">
+        <v>4075</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4876,7 +5228,11 @@
           <t>Senior software designer</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J87" t="n">
         <v>5000</v>
       </c>
@@ -4892,6 +5248,9 @@
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
+      <c r="O87" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4928,7 +5287,11 @@
           <t>Full-stack developer</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J88" t="n">
         <v>3160</v>
       </c>
@@ -4940,6 +5303,9 @@
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4988,6 +5354,9 @@
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
+      <c r="O89" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5024,7 +5393,11 @@
           <t>ohjelmistokehittäjä (full-stack) &amp; rekrymarkkinointi</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J90" t="n">
         <v>4100</v>
       </c>
@@ -5039,6 +5412,9 @@
         <is>
           <t xml:space="preserve">palkan lisäksi kompensaatioon kuuluu varsin runsas ja suomen it-alalla uniikki etupaketti. pelkkä palkka ei välttämättä ole kilpailukykyinen, mutta koko kompensaatio yleisesti työstäni on ehdottomasti kilpailukykyinen. </t>
         </is>
+      </c>
+      <c r="O90" t="n">
+        <v>4266.666666666667</v>
       </c>
     </row>
     <row r="91">
@@ -5076,7 +5452,11 @@
           <t>Full-stack dev konsultti</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J91" t="n">
         <v>4850</v>
       </c>
@@ -5088,6 +5468,9 @@
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
+      <c r="O91" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5136,6 +5519,9 @@
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
+      <c r="O92" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5188,6 +5574,9 @@
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
+      <c r="O93" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5224,7 +5613,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J94" t="n">
         <v>4150</v>
       </c>
@@ -5236,6 +5629,9 @@
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
+      <c r="O94" t="n">
+        <v>4322.916666666667</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5272,7 +5668,11 @@
           <t>full-stack-kehittäjä, arkkitehti</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J95" t="n">
         <v>6600</v>
       </c>
@@ -5284,6 +5684,9 @@
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5340,6 +5743,9 @@
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5392,6 +5798,9 @@
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5428,7 +5837,11 @@
           <t>ohjelmistkoehittäjä, full-stack</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J98" t="n">
         <v>4700</v>
       </c>
@@ -5440,6 +5853,9 @@
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
+      <c r="O98" t="n">
+        <v>4895.833333333333</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5492,6 +5908,9 @@
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
+      <c r="O99" t="n">
+        <v>6458.333333333333</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5544,6 +5963,9 @@
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
+      <c r="O100" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5580,7 +6002,11 @@
           <t>cloud specialist</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J101" t="n">
         <v>4860</v>
       </c>
@@ -5596,6 +6022,9 @@
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
+      <c r="O101" t="n">
+        <v>5062.5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5632,7 +6061,11 @@
           <t>Dev lead</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J102" t="n">
         <v>5100</v>
       </c>
@@ -5644,6 +6077,9 @@
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
+      <c r="O102" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5680,7 +6116,11 @@
           <t>Infra/pilvi/SRE</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J103" t="n">
         <v>5500</v>
       </c>
@@ -5699,6 +6139,9 @@
         <is>
           <t>Rahapalkan päälle tulee vielä kohtuullinen optiopotti, mutta se toki on lähinnä arpalippu</t>
         </is>
+      </c>
+      <c r="O103" t="n">
+        <v>5729.166666666667</v>
       </c>
     </row>
     <row r="104">
@@ -5736,7 +6179,11 @@
           <t>ohjelmistokehittäjä (full-stack)</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J104" t="n">
         <v>5250</v>
       </c>
@@ -5748,6 +6195,9 @@
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
+      <c r="O104" t="n">
+        <v>5666.666666666667</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5802,6 +6252,7 @@
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5860,6 +6311,9 @@
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
+      <c r="O106" t="n">
+        <v>2716.666666666667</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5896,7 +6350,11 @@
           <t>ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J107" t="n">
         <v>5800</v>
       </c>
@@ -5908,6 +6366,9 @@
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
+      <c r="O107" t="n">
+        <v>6041.666666666667</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5960,6 +6421,9 @@
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
+      <c r="O108" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6020,6 +6484,7 @@
           <t>Osittain laskutukseen perustuva palkka joten vaihtelee.</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6056,7 +6521,11 @@
           <t>Frontend, full-stack</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J110" t="n">
         <v>4000</v>
       </c>
@@ -6072,6 +6541,9 @@
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
+      <c r="O110" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6108,7 +6580,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J111" t="n">
         <v>6000</v>
       </c>
@@ -6120,6 +6596,9 @@
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
+      <c r="O111" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6156,7 +6635,11 @@
           <t>Mobiili</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J112" t="n">
         <v>5300</v>
       </c>
@@ -6168,6 +6651,9 @@
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
+      <c r="O112" t="n">
+        <v>5520.833333333333</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6204,7 +6690,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J113" t="n">
         <v>3000</v>
       </c>
@@ -6216,6 +6706,9 @@
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
+      <c r="O113" t="n">
+        <v>3125</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6270,6 +6763,7 @@
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6322,6 +6816,9 @@
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
+      <c r="O115" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6358,7 +6855,11 @@
           <t>Arkkitehti</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J116" t="n">
         <v>5500</v>
       </c>
@@ -6370,6 +6871,9 @@
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
+      <c r="O116" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6406,7 +6910,11 @@
           <t>Senior Software Engineer</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J117" t="n">
         <v>4500</v>
       </c>
@@ -6422,6 +6930,9 @@
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
+      <c r="O117" t="n">
+        <v>4916.666666666667</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6474,6 +6985,9 @@
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
+      <c r="O118" t="n">
+        <v>4947.916666666667</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6528,6 +7042,9 @@
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
+      <c r="O119" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6578,6 +7095,7 @@
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6610,7 +7128,11 @@
           <t>Full-stack ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J121" t="n">
         <v>4150</v>
       </c>
@@ -6622,6 +7144,9 @@
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
+      <c r="O121" t="n">
+        <v>4322.916666666667</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6658,7 +7183,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J122" t="n">
         <v>3360</v>
       </c>
@@ -6670,6 +7199,9 @@
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
+      <c r="O122" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6726,6 +7258,9 @@
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
+      <c r="O123" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6778,6 +7313,9 @@
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
+      <c r="O124" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6824,6 +7362,9 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>3958.333333333333</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6860,7 +7401,11 @@
           <t>Arkkitehti</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J126" t="n">
         <v>6956</v>
       </c>
@@ -6872,6 +7417,9 @@
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
+      <c r="O126" t="n">
+        <v>7245.833333333333</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6908,7 +7456,11 @@
           <t>Frontend-ohjelmistokehittäjä (mobiili)</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J127" t="n">
         <v>4000</v>
       </c>
@@ -6922,6 +7474,9 @@
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
+      <c r="O127" t="n">
+        <v>4416.666666666667</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6958,7 +7513,11 @@
           <t>sr data scientist</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J128" t="n">
         <v>5750</v>
       </c>
@@ -6970,6 +7529,9 @@
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
+      <c r="O128" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7022,6 +7584,9 @@
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
+      <c r="O129" t="n">
+        <v>6583.333333333333</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7058,7 +7623,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J130" t="n">
         <v>6000</v>
       </c>
@@ -7070,6 +7639,9 @@
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
+      <c r="O130" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7122,6 +7694,9 @@
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
+      <c r="O131" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7158,7 +7733,11 @@
           <t>DevSecOps specialist</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J132" t="n">
         <v>5060</v>
       </c>
@@ -7170,6 +7749,9 @@
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
+      <c r="O132" t="n">
+        <v>625</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7222,6 +7804,9 @@
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
+      <c r="O133" t="n">
+        <v>5166.666666666667</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7258,7 +7843,11 @@
           <t>Scrum Master</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J134" t="n">
         <v>4000</v>
       </c>
@@ -7270,6 +7859,9 @@
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
+      <c r="O134" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7320,6 +7912,7 @@
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7372,6 +7965,9 @@
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7424,6 +8020,9 @@
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
+      <c r="O137" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7460,7 +8059,11 @@
           <t>ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
         <v>140000</v>
@@ -7470,6 +8073,9 @@
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>11666.66666666667</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7522,6 +8128,9 @@
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>3645.833333333333</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7572,6 +8181,9 @@
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7614,6 +8226,9 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>6583.333333333333</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7666,6 +8281,9 @@
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7702,7 +8320,11 @@
           <t>DevOps</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J143" t="n">
         <v>4900</v>
       </c>
@@ -7714,6 +8336,9 @@
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>5104.166666666667</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7770,6 +8395,9 @@
           <t>Olen osakkaana startupissa, 5% osuus on osa kokonaiskompensaatiota. Edellisessä työssä bruttopalkka oli 6000 euroa kuukaudessa.</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7802,7 +8430,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J145" t="n">
         <v>4888</v>
       </c>
@@ -7818,6 +8450,9 @@
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>508.3333333333333</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7870,6 +8505,9 @@
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
+      <c r="O146" t="n">
+        <v>3479.166666666667</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7902,7 +8540,11 @@
           <t>full-stack kehittäjä</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J147" t="n">
         <v>5500</v>
       </c>
@@ -7914,6 +8556,9 @@
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>5729.166666666667</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7950,7 +8595,11 @@
           <t>Software Developer</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J148" t="n">
         <v>5500</v>
       </c>
@@ -7965,6 +8614,9 @@
         <is>
           <t>Ilmaset kaffet, safkat, salit jne.</t>
         </is>
+      </c>
+      <c r="O148" t="n">
+        <v>9583.333333333334</v>
       </c>
     </row>
     <row r="149">
@@ -8002,7 +8654,11 @@
           <t>backend, sysadmin, arkkitehti</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J149" t="n">
         <v>4500</v>
       </c>
@@ -8018,6 +8674,9 @@
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8074,6 +8733,9 @@
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>3125</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8130,6 +8792,9 @@
           <t>startup, palkan lisäksi optiopaketti.</t>
         </is>
       </c>
+      <c r="O151" t="n">
+        <v>4687.5</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8180,6 +8845,9 @@
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8208,7 +8876,11 @@
         <v>1</v>
       </c>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J153" t="n">
         <v>3600</v>
       </c>
@@ -8220,6 +8892,9 @@
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
+      <c r="O153" t="n">
+        <v>3750</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8272,6 +8947,9 @@
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
+      <c r="O154" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8330,6 +9008,9 @@
           <t>Palkka perustuu osittain laskutukseen, joten vuositulot vaihtelevat hieman.</t>
         </is>
       </c>
+      <c r="O155" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8382,6 +9063,9 @@
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
+      <c r="O156" t="n">
+        <v>4916.666666666667</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8438,6 +9122,9 @@
           <t>Vuositulot pitää sisällään myös sivutoimisena tehtyä pientä laskutusta.</t>
         </is>
       </c>
+      <c r="O157" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8474,7 +9161,11 @@
           <t>full-stack kehittäjä</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J158" t="n">
         <v>4600</v>
       </c>
@@ -8486,6 +9177,9 @@
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
+      <c r="O158" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8522,7 +9216,11 @@
           <t>Tekninen liidi</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J159" t="n">
         <v>6300</v>
       </c>
@@ -8534,6 +9232,9 @@
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
+      <c r="O159" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8590,6 +9291,9 @@
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
+      <c r="O160" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8640,6 +9344,9 @@
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
+      <c r="O161" t="n">
+        <v>6708.333333333333</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8692,6 +9399,9 @@
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
+      <c r="O162" t="n">
+        <v>5625</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8738,6 +9448,9 @@
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
+      <c r="O163" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8790,6 +9503,9 @@
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
+      <c r="O164" t="n">
+        <v>5375</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8826,7 +9542,11 @@
           <t>Ohjelmistokehittäjä full-stack</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J165" t="n">
         <v>3900</v>
       </c>
@@ -8838,6 +9558,9 @@
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
+      <c r="O165" t="n">
+        <v>4291.666666666667</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8874,7 +9597,11 @@
           <t>ohjelmistokehittäjä, front + vähän back</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J166" t="n">
         <v>4500</v>
       </c>
@@ -8886,6 +9613,9 @@
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
+      <c r="O166" t="n">
+        <v>4833.333333333333</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8942,6 +9672,9 @@
         </is>
       </c>
       <c r="N167" t="inlineStr"/>
+      <c r="O167" t="n">
+        <v>333.3333333333333</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8978,7 +9711,11 @@
           <t>Ohjelmistokehittäjä, full-stack</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J168" t="n">
         <v>4000</v>
       </c>
@@ -8990,6 +9727,9 @@
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
+      <c r="O168" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9026,7 +9766,11 @@
           <t>full-stack developer konsultti</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J169" t="n">
         <v>4000</v>
       </c>
@@ -9042,6 +9786,9 @@
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
+      <c r="O169" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9078,7 +9825,11 @@
           <t>Vanhempi ohjelmistosuunnittelija, fullstack</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J170" t="n">
         <v>4140</v>
       </c>
@@ -9094,6 +9845,9 @@
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
+      <c r="O170" t="n">
+        <v>4312.5</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9130,7 +9884,11 @@
           <t>Lead developer</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J171" t="n">
         <v>7200</v>
       </c>
@@ -9142,6 +9900,9 @@
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
+      <c r="O171" t="n">
+        <v>20833.33333333333</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9194,6 +9955,9 @@
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
+      <c r="O172" t="n">
+        <v>7291.666666666667</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9246,6 +10010,9 @@
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
+      <c r="O173" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9282,7 +10049,11 @@
           <t>ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J174" t="n">
         <v>4800</v>
       </c>
@@ -9294,6 +10065,9 @@
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
+      <c r="O174" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9346,6 +10120,9 @@
       </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
+      <c r="O175" t="n">
+        <v>4375</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9398,6 +10175,9 @@
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
+      <c r="O176" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9446,6 +10226,9 @@
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
+      <c r="O177" t="n">
+        <v>15833.33333333333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9498,6 +10281,9 @@
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
+      <c r="O178" t="n">
+        <v>4183.333333333333</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9534,7 +10320,11 @@
           <t>DevOps</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J179" t="n">
         <v>3700</v>
       </c>
@@ -9546,6 +10336,9 @@
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
+      <c r="O179" t="n">
+        <v>3858.333333333333</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9604,6 +10397,7 @@
         </is>
       </c>
       <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9640,7 +10434,11 @@
           <t>Full-stack ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J181" t="n">
         <v>5600</v>
       </c>
@@ -9656,6 +10454,9 @@
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
+      <c r="O181" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9708,6 +10509,9 @@
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9744,7 +10548,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J183" t="n">
         <v>4060</v>
       </c>
@@ -9756,6 +10564,9 @@
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
+      <c r="O183" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9808,6 +10619,9 @@
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
+      <c r="O184" t="n">
+        <v>3750</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9860,6 +10674,9 @@
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>4666.666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9892,7 +10709,11 @@
           <t>DevOps</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J186" t="n">
         <v>5600</v>
       </c>
@@ -9904,6 +10725,9 @@
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
+      <c r="O186" t="n">
+        <v>5583.333333333333</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9956,6 +10780,9 @@
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
+      <c r="O187" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10008,6 +10835,9 @@
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
+      <c r="O188" t="n">
+        <v>3125</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10058,6 +10888,9 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
+      <c r="O189" t="n">
+        <v>12500</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10094,7 +10927,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J190" t="n">
         <v>5000</v>
       </c>
@@ -10106,6 +10943,9 @@
       </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
+      <c r="O190" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10142,7 +10982,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J191" t="n">
         <v>3400</v>
       </c>
@@ -10154,6 +10998,9 @@
       </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>3541.666666666667</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10204,6 +11051,9 @@
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>11483.33333333333</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10256,6 +11106,9 @@
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
+      <c r="O193" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10308,6 +11161,9 @@
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
+      <c r="O194" t="n">
+        <v>4225</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10360,6 +11216,9 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
+      <c r="O195" t="n">
+        <v>3916.666666666667</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10392,7 +11251,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J196" t="n">
         <v>6000</v>
       </c>
@@ -10404,6 +11267,9 @@
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
+      <c r="O196" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10460,6 +11326,9 @@
           <t>saispa lisää liksaa</t>
         </is>
       </c>
+      <c r="O197" t="n">
+        <v>5104.166666666667</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10508,6 +11377,9 @@
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
+      <c r="O198" t="n">
+        <v>6510.416666666667</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10544,7 +11416,11 @@
           <t>Lead Developer</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J199" t="n">
         <v>5100</v>
       </c>
@@ -10563,6 +11439,9 @@
         <is>
           <t>Startup</t>
         </is>
+      </c>
+      <c r="O199" t="n">
+        <v>5312.5</v>
       </c>
     </row>
     <row r="200">
@@ -10600,7 +11479,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J200" t="n">
         <v>4700</v>
       </c>
@@ -10612,6 +11495,9 @@
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
+      <c r="O200" t="n">
+        <v>5600</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10668,6 +11554,9 @@
         </is>
       </c>
       <c r="N201" t="inlineStr"/>
+      <c r="O201" t="n">
+        <v>3916.666666666667</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10720,6 +11609,9 @@
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
+      <c r="O202" t="n">
+        <v>5333.333333333333</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10772,6 +11664,9 @@
       </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
+      <c r="O203" t="n">
+        <v>6333.333333333333</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10816,6 +11711,9 @@
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
+      <c r="O204" t="n">
+        <v>5729.166666666667</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10866,6 +11764,9 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
+      <c r="O205" t="n">
+        <v>3229.166666666667</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10902,7 +11803,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J206" t="n">
         <v>5200</v>
       </c>
@@ -10914,6 +11819,9 @@
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
+      <c r="O206" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10966,6 +11874,9 @@
           <t>+ merkittävä optiopaketti</t>
         </is>
       </c>
+      <c r="O207" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11016,6 +11927,9 @@
       </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
+      <c r="O208" t="n">
+        <v>9166.666666666666</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11052,7 +11966,11 @@
           <t>frontend developer</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J209" t="n">
         <v>3800</v>
       </c>
@@ -11064,6 +11982,9 @@
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
+      <c r="O209" t="n">
+        <v>3958.333333333333</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11116,6 +12037,9 @@
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
+      <c r="O210" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11152,7 +12076,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J211" t="n">
         <v>4400</v>
       </c>
@@ -11164,6 +12092,9 @@
       </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
+      <c r="O211" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11216,6 +12147,9 @@
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
+      <c r="O212" t="n">
+        <v>7812.5</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11270,6 +12204,9 @@
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
+      <c r="O213" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11322,6 +12259,9 @@
       </c>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
+      <c r="O214" t="n">
+        <v>4250</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11358,7 +12298,11 @@
           <t>Ohjelmisto kehittäjä</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J215" t="n">
         <v>3590</v>
       </c>
@@ -11370,6 +12314,9 @@
       </c>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
+      <c r="O215" t="n">
+        <v>3739.583333333333</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11406,7 +12353,11 @@
           <t>Ohjelmistokehittäjä (frontend)</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J216" t="n">
         <v>3300</v>
       </c>
@@ -11422,6 +12373,9 @@
         </is>
       </c>
       <c r="N216" t="inlineStr"/>
+      <c r="O216" t="n">
+        <v>4083.333333333333</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11482,6 +12436,9 @@
           <t>Johtajasopimus, ei työaikaa</t>
         </is>
       </c>
+      <c r="O217" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -11518,7 +12475,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J218" t="n">
         <v>4200</v>
       </c>
@@ -11534,6 +12495,9 @@
         </is>
       </c>
       <c r="N218" t="inlineStr"/>
+      <c r="O218" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -11586,6 +12550,9 @@
       </c>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr"/>
+      <c r="O219" t="n">
+        <v>4833.333333333333</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11622,7 +12589,11 @@
           <t>Koodaava projektipäällikkö</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J220" t="n">
         <v>4250</v>
       </c>
@@ -11638,6 +12609,9 @@
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
+      <c r="O220" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11666,7 +12640,11 @@
         <v>1</v>
       </c>
       <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J221" t="n">
         <v>4000</v>
       </c>
@@ -11678,6 +12656,9 @@
       </c>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr"/>
+      <c r="O221" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11734,6 +12715,9 @@
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
+      <c r="O222" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11786,6 +12770,9 @@
       </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr"/>
+      <c r="O223" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11822,7 +12809,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J224" t="n">
         <v>2850</v>
       </c>
@@ -11834,6 +12825,9 @@
       </c>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr"/>
+      <c r="O224" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11870,7 +12864,11 @@
           <t>ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J225" t="n">
         <v>3000</v>
       </c>
@@ -11886,6 +12884,9 @@
         </is>
       </c>
       <c r="N225" t="inlineStr"/>
+      <c r="O225" t="n">
+        <v>3373.166666666667</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11938,6 +12939,7 @@
       </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11974,7 +12976,11 @@
           <t>Data scientist</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J227" t="n">
         <v>4500</v>
       </c>
@@ -11986,6 +12992,9 @@
       </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
+      <c r="O227" t="n">
+        <v>4750</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12022,7 +13031,11 @@
           <t>asiantuntija</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J228" t="n">
         <v>3600</v>
       </c>
@@ -12034,6 +13047,9 @@
       </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
+      <c r="O228" t="n">
+        <v>3750</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12090,6 +13106,9 @@
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
+      <c r="O229" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12146,6 +13165,9 @@
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
+      <c r="O230" t="n">
+        <v>6333.333333333333</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12204,6 +13226,9 @@
           <t xml:space="preserve">Vastasin kysymyksiin läpällä. Summat on enemmän sitä minkä verran yrittäjänä haluaa sykkiä ja mennä "raha edellä". </t>
         </is>
       </c>
+      <c r="O231" t="n">
+        <v>8333.333333333334</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12256,6 +13281,9 @@
       </c>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr"/>
+      <c r="O232" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12308,6 +13336,9 @@
       </c>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr"/>
+      <c r="O233" t="n">
+        <v>7291.666666666667</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12360,6 +13391,9 @@
       </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
+      <c r="O234" t="n">
+        <v>5625</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12396,7 +13430,11 @@
           <t>Lead Developer</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J235" t="n">
         <v>7000</v>
       </c>
@@ -12412,6 +13450,9 @@
         </is>
       </c>
       <c r="N235" t="inlineStr"/>
+      <c r="O235" t="n">
+        <v>7583.333333333333</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12464,6 +13505,9 @@
       </c>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr"/>
+      <c r="O236" t="n">
+        <v>2604.166666666667</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -12516,6 +13560,9 @@
       </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr"/>
+      <c r="O237" t="n">
+        <v>10833.33333333333</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -12568,6 +13615,9 @@
       </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
+      <c r="O238" t="n">
+        <v>5100</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -12620,6 +13670,9 @@
       </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr"/>
+      <c r="O239" t="n">
+        <v>5520.833333333333</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -12668,6 +13721,9 @@
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
+      <c r="O240" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12720,6 +13776,9 @@
       </c>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
+      <c r="O241" t="n">
+        <v>5729.166666666667</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12756,7 +13815,11 @@
           <t>ohjelmistoarkkitehti</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J242" t="n">
         <v>6100</v>
       </c>
@@ -12768,6 +13831,9 @@
       </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
+      <c r="O242" t="n">
+        <v>6354.166666666667</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12804,7 +13870,11 @@
           <t>arkkitehti</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J243" t="n">
         <v>5900</v>
       </c>
@@ -12816,6 +13886,9 @@
       </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
+      <c r="O243" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12868,6 +13941,9 @@
       </c>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
+      <c r="O244" t="n">
+        <v>5276.041666666667</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12904,7 +13980,11 @@
           <t>Full-stack / arkkitehti / tekninen myynti</t>
         </is>
       </c>
-      <c r="I245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J245" t="n">
         <v>5168</v>
       </c>
@@ -12920,6 +14000,9 @@
         </is>
       </c>
       <c r="N245" t="inlineStr"/>
+      <c r="O245" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12976,6 +14059,9 @@
           <t>Korona-aika on lisännyt etätyön määrää. Aiemmin pari päivää viikossa etänä, nyt kokonaan. Paluuta vanhaan ei varmaankaan ole, ehkä päivä viikossa konttorilla ihan sosiaalisten kontaktien takia.</t>
         </is>
       </c>
+      <c r="O246" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13032,6 +14118,9 @@
         </is>
       </c>
       <c r="N247" t="inlineStr"/>
+      <c r="O247" t="n">
+        <v>8666.666666666666</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13084,6 +14173,9 @@
       </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
+      <c r="O248" t="n">
+        <v>7583.333333333333</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13120,7 +14212,11 @@
           <t>Front-end / full-stack ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I249" t="inlineStr"/>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J249" t="n">
         <v>4050</v>
       </c>
@@ -13132,6 +14228,9 @@
       </c>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr"/>
+      <c r="O249" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13184,6 +14283,9 @@
       </c>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr"/>
+      <c r="O250" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13218,7 +14320,11 @@
           <t>Full-stack, backend painotuksella</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
         <v>130000</v>
@@ -13228,6 +14334,9 @@
       </c>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
+      <c r="O251" t="n">
+        <v>10833.33333333333</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13280,6 +14389,9 @@
       </c>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr"/>
+      <c r="O252" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13316,7 +14428,11 @@
           <t>devops-konsultti</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J253" t="n">
         <v>6200</v>
       </c>
@@ -13328,6 +14444,9 @@
       </c>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr"/>
+      <c r="O253" t="n">
+        <v>6458.333333333333</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13380,6 +14499,9 @@
       </c>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr"/>
+      <c r="O254" t="n">
+        <v>3166.666666666667</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13416,7 +14538,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J255" t="n">
         <v>2800</v>
       </c>
@@ -13428,6 +14554,9 @@
       </c>
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr"/>
+      <c r="O255" t="n">
+        <v>3025</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -13480,6 +14609,9 @@
       </c>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr"/>
+      <c r="O256" t="n">
+        <v>4250</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -13532,6 +14664,9 @@
       </c>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr"/>
+      <c r="O257" t="n">
+        <v>8166.666666666667</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -13588,6 +14723,9 @@
         </is>
       </c>
       <c r="N258" t="inlineStr"/>
+      <c r="O258" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -13624,7 +14762,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J259" t="n">
         <v>4200</v>
       </c>
@@ -13640,6 +14782,9 @@
         </is>
       </c>
       <c r="N259" t="inlineStr"/>
+      <c r="O259" t="n">
+        <v>4375</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -13692,6 +14837,9 @@
       </c>
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr"/>
+      <c r="O260" t="n">
+        <v>3125</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -13744,6 +14892,9 @@
       </c>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr"/>
+      <c r="O261" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13804,6 +14955,9 @@
           <t>Ei sinänsä liity suoraan palkkoihin, mutta olisi mielenkiintoista tietää miten palkka vaikuttaa työpaikan vaihtoon. Eli esim. Oletko vaihtanut/vaihtamassa/miettinyt vaihtamista, koska toisaalla maksetaan enemmän?</t>
         </is>
       </c>
+      <c r="O262" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13856,6 +15010,9 @@
       </c>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr"/>
+      <c r="O263" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13908,6 +15065,9 @@
       </c>
       <c r="M264" t="inlineStr"/>
       <c r="N264" t="inlineStr"/>
+      <c r="O264" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13964,6 +15124,9 @@
         </is>
       </c>
       <c r="N265" t="inlineStr"/>
+      <c r="O265" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14020,6 +15183,9 @@
         </is>
       </c>
       <c r="N266" t="inlineStr"/>
+      <c r="O266" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14056,7 +15222,11 @@
           <t>Ohejlmistokehittäjä (full-stack)</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J267" t="n">
         <v>4200</v>
       </c>
@@ -14068,6 +15238,9 @@
       </c>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr"/>
+      <c r="O267" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14114,6 +15287,9 @@
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr"/>
+      <c r="O268" t="n">
+        <v>9166.666666666666</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14150,7 +15326,11 @@
           <t>Full stack developer</t>
         </is>
       </c>
-      <c r="I269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J269" t="n">
         <v>5400</v>
       </c>
@@ -14162,6 +15342,9 @@
       </c>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr"/>
+      <c r="O269" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14222,6 +15405,9 @@
           <t>olen sekä päivätyöläinen että friikku. jospa nyt kuitenki vois valita monta?</t>
         </is>
       </c>
+      <c r="O270" t="n">
+        <v>6043.333333333333</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14272,6 +15458,9 @@
       </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr"/>
+      <c r="O271" t="n">
+        <v>7916.666666666667</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14308,7 +15497,11 @@
           <t>lead dev</t>
         </is>
       </c>
-      <c r="I272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J272" t="n">
         <v>5800</v>
       </c>
@@ -14324,6 +15517,9 @@
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
+      <c r="O272" t="n">
+        <v>6083.333333333333</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14360,7 +15556,11 @@
           <t>Lead Developer</t>
         </is>
       </c>
-      <c r="I273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J273" t="n">
         <v>4200</v>
       </c>
@@ -14379,6 +15579,9 @@
         <is>
           <t>Ihan OK. Edut myös kovat.</t>
         </is>
+      </c>
+      <c r="O273" t="n">
+        <v>4583.333333333333</v>
       </c>
     </row>
     <row r="274">
@@ -14416,7 +15619,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J274" t="n">
         <v>4000</v>
       </c>
@@ -14428,6 +15635,9 @@
       </c>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr"/>
+      <c r="O274" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -14480,6 +15690,9 @@
       </c>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr"/>
+      <c r="O275" t="n">
+        <v>4479.166666666667</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -14532,6 +15745,9 @@
       </c>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr"/>
+      <c r="O276" t="n">
+        <v>6145.833333333333</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -14568,7 +15784,11 @@
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J277" t="n">
         <v>4000</v>
       </c>
@@ -14584,6 +15804,9 @@
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
+      <c r="O277" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -14640,6 +15863,9 @@
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
+      <c r="O278" t="n">
+        <v>5250</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -14692,6 +15918,9 @@
       </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr"/>
+      <c r="O279" t="n">
+        <v>3750</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -14744,6 +15973,9 @@
       </c>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr"/>
+      <c r="O280" t="n">
+        <v>4687.5</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -14796,6 +16028,9 @@
       </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr"/>
+      <c r="O281" t="n">
+        <v>5166.666666666667</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -14848,6 +16083,9 @@
       </c>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr"/>
+      <c r="O282" t="n">
+        <v>5166.666666666667</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14898,6 +16136,9 @@
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="inlineStr"/>
+      <c r="O283" t="n">
+        <v>3906.25</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14954,6 +16195,9 @@
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
+      <c r="O284" t="n">
+        <v>2937.5</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15006,6 +16250,7 @@
       <c r="L285" t="inlineStr"/>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15058,6 +16303,9 @@
       </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr"/>
+      <c r="O286" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15106,6 +16354,9 @@
       </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="inlineStr"/>
+      <c r="O287" t="n">
+        <v>5454.166666666667</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15158,6 +16409,9 @@
         </is>
       </c>
       <c r="N288" t="inlineStr"/>
+      <c r="O288" t="n">
+        <v>3958.333333333333</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15194,7 +16448,11 @@
           <t>Solution Developer</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr"/>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J289" t="n">
         <v>4747</v>
       </c>
@@ -15210,6 +16468,9 @@
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
+      <c r="O289" t="n">
+        <v>5166.666666666667</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15262,6 +16523,9 @@
       </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr"/>
+      <c r="O290" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15298,7 +16562,11 @@
           <t xml:space="preserve">Full-stack </t>
         </is>
       </c>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J291" t="n">
         <v>4400</v>
       </c>
@@ -15314,6 +16582,9 @@
         </is>
       </c>
       <c r="N291" t="inlineStr"/>
+      <c r="O291" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15370,6 +16641,9 @@
         </is>
       </c>
       <c r="N292" t="inlineStr"/>
+      <c r="O292" t="n">
+        <v>1875</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15406,7 +16680,11 @@
           <t>ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I293" t="inlineStr"/>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J293" t="n">
         <v>3950</v>
       </c>
@@ -15418,6 +16696,9 @@
       </c>
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr"/>
+      <c r="O293" t="n">
+        <v>4114.583333333333</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -15474,6 +16755,9 @@
         </is>
       </c>
       <c r="N294" t="inlineStr"/>
+      <c r="O294" t="n">
+        <v>3552.083333333333</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -15510,7 +16794,11 @@
           <t>frontend ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J295" t="n">
         <v>2800</v>
       </c>
@@ -15522,6 +16810,9 @@
       </c>
       <c r="M295" t="inlineStr"/>
       <c r="N295" t="inlineStr"/>
+      <c r="O295" t="n">
+        <v>2916.666666666667</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -15570,6 +16861,9 @@
       </c>
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr"/>
+      <c r="O296" t="n">
+        <v>3645.833333333333</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -15606,7 +16900,11 @@
           <t>ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I297" t="inlineStr"/>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J297" t="n">
         <v>4900</v>
       </c>
@@ -15618,6 +16916,9 @@
       </c>
       <c r="M297" t="inlineStr"/>
       <c r="N297" t="inlineStr"/>
+      <c r="O297" t="n">
+        <v>5104.166666666667</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -15670,6 +16971,9 @@
       </c>
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr"/>
+      <c r="O298" t="n">
+        <v>3725</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -15706,7 +17010,11 @@
           <t>Senior developer, tech lead</t>
         </is>
       </c>
-      <c r="I299" t="inlineStr"/>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J299" t="n">
         <v>4100</v>
       </c>
@@ -15718,6 +17026,9 @@
       </c>
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="inlineStr"/>
+      <c r="O299" t="n">
+        <v>4270.833333333333</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -15774,6 +17085,9 @@
         </is>
       </c>
       <c r="N300" t="inlineStr"/>
+      <c r="O300" t="n">
+        <v>3020.833333333333</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -15826,6 +17140,9 @@
       </c>
       <c r="M301" t="inlineStr"/>
       <c r="N301" t="inlineStr"/>
+      <c r="O301" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -15882,6 +17199,9 @@
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
+      <c r="O302" t="n">
+        <v>3854.166666666667</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -15932,6 +17252,9 @@
       </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr"/>
+      <c r="O303" t="n">
+        <v>11666.66666666667</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15984,6 +17307,9 @@
       </c>
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr"/>
+      <c r="O304" t="n">
+        <v>2450</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16036,6 +17362,9 @@
       </c>
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr"/>
+      <c r="O305" t="n">
+        <v>4250</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16084,6 +17413,9 @@
       </c>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="inlineStr"/>
+      <c r="O306" t="n">
+        <v>10833.33333333333</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16140,6 +17472,9 @@
           <t xml:space="preserve">Työskentelen opintojen ohella, ensimmäisessä frontend devaajan työssä. Olen opiskellut reilu 2 vuotta yliopistossa. Palkkani on mielestäni nyt ihan ok, mutta tarkoituksena nostaa sitä 3000e /kk loppukesään mennessä. </t>
         </is>
       </c>
+      <c r="O307" t="n">
+        <v>1666.666666666667</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16192,6 +17527,9 @@
       </c>
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr"/>
+      <c r="O308" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16250,6 +17588,9 @@
           <t>palkan lisänä lounas- ja virkistysetu</t>
         </is>
       </c>
+      <c r="O309" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16286,7 +17627,11 @@
           <t>arkkitehti</t>
         </is>
       </c>
-      <c r="I310" t="inlineStr"/>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J310" t="n">
         <v>5000</v>
       </c>
@@ -16298,6 +17643,9 @@
       </c>
       <c r="M310" t="inlineStr"/>
       <c r="N310" t="inlineStr"/>
+      <c r="O310" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16350,6 +17698,9 @@
       </c>
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr"/>
+      <c r="O311" t="n">
+        <v>7291.666666666667</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -16402,6 +17753,9 @@
       </c>
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr"/>
+      <c r="O312" t="n">
+        <v>6770.833333333333</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -16458,6 +17812,9 @@
         </is>
       </c>
       <c r="N313" t="inlineStr"/>
+      <c r="O313" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -16510,6 +17867,9 @@
       </c>
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr"/>
+      <c r="O314" t="n">
+        <v>6500</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -16546,7 +17906,11 @@
           <t>Full-stack-kehittäjä/ops (tittelinä lead developer)</t>
         </is>
       </c>
-      <c r="I315" t="inlineStr"/>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J315" t="n">
         <v>6700</v>
       </c>
@@ -16558,6 +17922,9 @@
       </c>
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr"/>
+      <c r="O315" t="n">
+        <v>6979.166666666667</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -16610,6 +17977,9 @@
       </c>
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr"/>
+      <c r="O316" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -16646,7 +18016,11 @@
           <t>DevOps Specialist</t>
         </is>
       </c>
-      <c r="I317" t="inlineStr"/>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J317" t="n">
         <v>3700</v>
       </c>
@@ -16658,6 +18032,9 @@
       </c>
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr"/>
+      <c r="O317" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -16710,6 +18087,9 @@
       </c>
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="inlineStr"/>
+      <c r="O318" t="n">
+        <v>16666.66666666667</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -16746,7 +18126,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I319" t="inlineStr"/>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J319" t="n">
         <v>3500</v>
       </c>
@@ -16758,6 +18142,9 @@
       </c>
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr"/>
+      <c r="O319" t="n">
+        <v>3645.833333333333</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -16794,7 +18181,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I320" t="inlineStr"/>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J320" t="n">
         <v>3250</v>
       </c>
@@ -16806,6 +18197,9 @@
       </c>
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr"/>
+      <c r="O320" t="n">
+        <v>3385.416666666667</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -16842,7 +18236,11 @@
           <t>Senior developer</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J321" t="n">
         <v>4200</v>
       </c>
@@ -16858,6 +18256,9 @@
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
+      <c r="O321" t="n">
+        <v>4750</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -16910,6 +18311,9 @@
       </c>
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr"/>
+      <c r="O322" t="n">
+        <v>4750</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -16968,6 +18372,9 @@
           <t>palkan lisänä lounas- ja virkistysetu</t>
         </is>
       </c>
+      <c r="O323" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17024,6 +18431,9 @@
           <t>Opiskelija</t>
         </is>
       </c>
+      <c r="O324" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17060,7 +18470,11 @@
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="I325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J325" t="n">
         <v>5600</v>
       </c>
@@ -17072,6 +18486,9 @@
       </c>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr"/>
+      <c r="O325" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17126,6 +18543,9 @@
         </is>
       </c>
       <c r="N326" t="inlineStr"/>
+      <c r="O326" t="n">
+        <v>6666.666666666667</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17162,7 +18582,11 @@
           <t>Ohjelmistokehittäjä/Projektiliidi</t>
         </is>
       </c>
-      <c r="I327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J327" t="n">
         <v>4300</v>
       </c>
@@ -17174,6 +18598,9 @@
       </c>
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr"/>
+      <c r="O327" t="n">
+        <v>4750</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17210,7 +18637,11 @@
           <t>Ohjelmistotiimin vetäjä</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J328" t="n">
         <v>3600</v>
       </c>
@@ -17225,6 +18656,9 @@
         <is>
           <t>Teen 80% työaikaa jotta ehtisin harrastaa kaikenlaista työnteon lisäksi</t>
         </is>
+      </c>
+      <c r="O328" t="n">
+        <v>3416.666666666667</v>
       </c>
     </row>
     <row r="329">
@@ -17278,6 +18712,9 @@
       </c>
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr"/>
+      <c r="O329" t="n">
+        <v>3833.333333333333</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17330,6 +18767,9 @@
       </c>
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr"/>
+      <c r="O330" t="n">
+        <v>2887.5</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -17382,6 +18822,9 @@
           <t>Halpaa freelancer laskutusta oman tuotekehityksen sivussa</t>
         </is>
       </c>
+      <c r="O331" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -17418,7 +18861,11 @@
           <t>Full-stack kehittäjä</t>
         </is>
       </c>
-      <c r="I332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J332" t="n">
         <v>5566</v>
       </c>
@@ -17437,6 +18884,9 @@
         <is>
           <t>Palkka riippuu osittain firman tuloksesta, joten vaikea sanoa tarkkaan.</t>
         </is>
+      </c>
+      <c r="O332" t="n">
+        <v>6250</v>
       </c>
     </row>
     <row r="333">
@@ -17490,6 +18940,9 @@
       </c>
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr"/>
+      <c r="O333" t="n">
+        <v>5729.166666666667</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -17542,6 +18995,9 @@
       </c>
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr"/>
+      <c r="O334" t="n">
+        <v>5833.333333333333</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -17594,6 +19050,9 @@
       </c>
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr"/>
+      <c r="O335" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -17646,6 +19105,9 @@
       </c>
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr"/>
+      <c r="O336" t="n">
+        <v>4666.666666666667</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -17678,7 +19140,11 @@
           <t>Full-stack</t>
         </is>
       </c>
-      <c r="I337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
         <v>155000</v>
@@ -17688,6 +19154,9 @@
       </c>
       <c r="M337" t="inlineStr"/>
       <c r="N337" t="inlineStr"/>
+      <c r="O337" t="n">
+        <v>12916.66666666667</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -17742,6 +19211,9 @@
         </is>
       </c>
       <c r="N338" t="inlineStr"/>
+      <c r="O338" t="n">
+        <v>5937.5</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -17790,6 +19262,9 @@
       </c>
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr"/>
+      <c r="O339" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -17838,6 +19313,9 @@
       </c>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr"/>
+      <c r="O340" t="n">
+        <v>4843.75</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -17890,6 +19368,9 @@
       </c>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr"/>
+      <c r="O341" t="n">
+        <v>2812.5</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -17926,7 +19407,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr"/>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J342" t="n">
         <v>4700</v>
       </c>
@@ -17938,6 +19423,9 @@
       </c>
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="inlineStr"/>
+      <c r="O342" t="n">
+        <v>4895.833333333333</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -17990,6 +19478,9 @@
       </c>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="inlineStr"/>
+      <c r="O343" t="n">
+        <v>4843.75</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18038,6 +19529,9 @@
       </c>
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr"/>
+      <c r="O344" t="n">
+        <v>5916.666666666667</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18072,7 +19566,11 @@
           <t>Fullstack</t>
         </is>
       </c>
-      <c r="I345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
         <v>135000</v>
@@ -18082,6 +19580,9 @@
       </c>
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr"/>
+      <c r="O345" t="n">
+        <v>11250</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18134,6 +19635,9 @@
       </c>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr"/>
+      <c r="O346" t="n">
+        <v>4008.333333333333</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18170,7 +19674,11 @@
           <t>Full-stack kehittäjä</t>
         </is>
       </c>
-      <c r="I347" t="inlineStr"/>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J347" t="n">
         <v>3900</v>
       </c>
@@ -18182,6 +19690,9 @@
       </c>
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr"/>
+      <c r="O347" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18234,6 +19745,9 @@
       </c>
       <c r="M348" t="inlineStr"/>
       <c r="N348" t="inlineStr"/>
+      <c r="O348" t="n">
+        <v>8250</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18286,6 +19800,9 @@
       </c>
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="inlineStr"/>
+      <c r="O349" t="n">
+        <v>5208.333333333333</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -18338,6 +19855,9 @@
       </c>
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="inlineStr"/>
+      <c r="O350" t="n">
+        <v>6083.333333333333</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -18390,6 +19910,9 @@
       </c>
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr"/>
+      <c r="O351" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -18442,6 +19965,9 @@
       </c>
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr"/>
+      <c r="O352" t="n">
+        <v>4666.666666666667</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -18494,6 +20020,9 @@
       </c>
       <c r="M353" t="inlineStr"/>
       <c r="N353" t="inlineStr"/>
+      <c r="O353" t="n">
+        <v>3958.333333333333</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -18530,7 +20059,11 @@
           <t>Ohjelmistokehittäjä (full-stack), arkkitehti</t>
         </is>
       </c>
-      <c r="I354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J354" t="n">
         <v>3700</v>
       </c>
@@ -18542,6 +20075,9 @@
       </c>
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr"/>
+      <c r="O354" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -18590,6 +20126,9 @@
           <t>Vaikea vastata henkilönä joka tekee yrityksen kautta yhdelle ulkomaalaiselle yritykselle töitä (jolla ei ole entiteettiä suomessa). Vastasin nyt ikään kuin olisin yrittäjä vaikka käytännössä tämä on sama kuin olisin palkkaduunissa.</t>
         </is>
       </c>
+      <c r="O355" t="n">
+        <v>9250</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -18646,6 +20185,9 @@
           <t>Pakettiin kuuluu reilu määrä optioita ja palkka nousee (ja laskee) firman liikevaihdon myötä.</t>
         </is>
       </c>
+      <c r="O356" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -18702,6 +20244,9 @@
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
+      <c r="O357" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -18754,6 +20299,9 @@
       </c>
       <c r="M358" t="inlineStr"/>
       <c r="N358" t="inlineStr"/>
+      <c r="O358" t="n">
+        <v>7416.666666666667</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -18802,6 +20350,9 @@
       </c>
       <c r="M359" t="inlineStr"/>
       <c r="N359" t="inlineStr"/>
+      <c r="O359" t="n">
+        <v>4750</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -18838,7 +20389,11 @@
           <t>Ohjelmistokehittäjä (full stack, konsultti)</t>
         </is>
       </c>
-      <c r="I360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J360" t="n">
         <v>3744</v>
       </c>
@@ -18854,6 +20409,9 @@
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
+      <c r="O360" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -18890,7 +20448,11 @@
           <t>Backend, pilvi-infra</t>
         </is>
       </c>
-      <c r="I361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J361" t="n">
         <v>3220</v>
       </c>
@@ -18906,6 +20468,9 @@
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
+      <c r="O361" t="n">
+        <v>3354.166666666667</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -18958,6 +20523,9 @@
       </c>
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr"/>
+      <c r="O362" t="n">
+        <v>7291.666666666667</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -18994,7 +20562,11 @@
           <t>Full-stack ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J363" t="n">
         <v>4500</v>
       </c>
@@ -19006,6 +20578,9 @@
       </c>
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="inlineStr"/>
+      <c r="O363" t="n">
+        <v>4687.5</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19058,6 +20633,9 @@
       </c>
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr"/>
+      <c r="O364" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19106,6 +20684,9 @@
       </c>
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr"/>
+      <c r="O365" t="n">
+        <v>3489.583333333333</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19142,7 +20723,11 @@
           <t>QA</t>
         </is>
       </c>
-      <c r="I366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J366" t="n">
         <v>4155</v>
       </c>
@@ -19154,6 +20739,9 @@
       </c>
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr"/>
+      <c r="O366" t="n">
+        <v>4916.666666666667</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19190,7 +20778,11 @@
           <t>full-stack ohjelmistokehittäjä/arkkitehti</t>
         </is>
       </c>
-      <c r="I367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J367" t="n">
         <v>5300</v>
       </c>
@@ -19202,6 +20794,9 @@
       </c>
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr"/>
+      <c r="O367" t="n">
+        <v>5666.666666666667</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19254,6 +20849,9 @@
       </c>
       <c r="M368" t="inlineStr"/>
       <c r="N368" t="inlineStr"/>
+      <c r="O368" t="n">
+        <v>4691.666666666667</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -19306,6 +20904,9 @@
       </c>
       <c r="M369" t="inlineStr"/>
       <c r="N369" t="inlineStr"/>
+      <c r="O369" t="n">
+        <v>5885.416666666667</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -19358,6 +20959,9 @@
       </c>
       <c r="M370" t="inlineStr"/>
       <c r="N370" t="inlineStr"/>
+      <c r="O370" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -19408,6 +21012,9 @@
       </c>
       <c r="M371" t="inlineStr"/>
       <c r="N371" t="inlineStr"/>
+      <c r="O371" t="n">
+        <v>9583.333333333334</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -19464,6 +21071,9 @@
         </is>
       </c>
       <c r="N372" t="inlineStr"/>
+      <c r="O372" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -19500,7 +21110,11 @@
           <t>backend</t>
         </is>
       </c>
-      <c r="I373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J373" t="n">
         <v>4000</v>
       </c>
@@ -19512,6 +21126,9 @@
       </c>
       <c r="M373" t="inlineStr"/>
       <c r="N373" t="inlineStr"/>
+      <c r="O373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -19564,6 +21181,9 @@
       </c>
       <c r="M374" t="inlineStr"/>
       <c r="N374" t="inlineStr"/>
+      <c r="O374" t="n">
+        <v>3958.333333333333</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -19616,6 +21236,9 @@
       </c>
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr"/>
+      <c r="O375" t="n">
+        <v>5083.333333333333</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -19668,6 +21291,9 @@
       </c>
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr"/>
+      <c r="O376" t="n">
+        <v>6333.333333333333</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -19720,6 +21346,9 @@
       </c>
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr"/>
+      <c r="O377" t="n">
+        <v>4875</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -19774,6 +21403,9 @@
         </is>
       </c>
       <c r="N378" t="inlineStr"/>
+      <c r="O378" t="n">
+        <v>8750</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -19806,7 +21438,11 @@
           <t>arkkitehti / tech advisor</t>
         </is>
       </c>
-      <c r="I379" t="inlineStr"/>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J379" t="n">
         <v>4700</v>
       </c>
@@ -19818,6 +21454,9 @@
       </c>
       <c r="M379" t="inlineStr"/>
       <c r="N379" t="inlineStr"/>
+      <c r="O379" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -19874,6 +21513,9 @@
           <t>it-ala 10+v koodaus 6v</t>
         </is>
       </c>
+      <c r="O380" t="n">
+        <v>4416.666666666667</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -19930,6 +21572,9 @@
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
+      <c r="O381" t="n">
+        <v>5520.833333333333</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -19966,7 +21611,11 @@
           <t>full-stack</t>
         </is>
       </c>
-      <c r="I382" t="inlineStr"/>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J382" t="n">
         <v>4300</v>
       </c>
@@ -19978,6 +21627,9 @@
       </c>
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr"/>
+      <c r="O382" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20034,6 +21686,9 @@
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
+      <c r="O383" t="n">
+        <v>3854.166666666667</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20068,7 +21723,11 @@
           <t>CTO, esimies, yrittäjä, full-stack kehittäjä ja arkkitehti</t>
         </is>
       </c>
-      <c r="I384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
         <v>120000</v>
@@ -20082,6 +21741,9 @@
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
+      <c r="O384" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20134,6 +21796,9 @@
       </c>
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr"/>
+      <c r="O385" t="n">
+        <v>7083.333333333333</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20184,6 +21849,9 @@
       </c>
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr"/>
+      <c r="O386" t="n">
+        <v>10833.33333333333</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20236,6 +21904,9 @@
       </c>
       <c r="M387" t="inlineStr"/>
       <c r="N387" t="inlineStr"/>
+      <c r="O387" t="n">
+        <v>8333.333333333334</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -20288,6 +21959,9 @@
       </c>
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr"/>
+      <c r="O388" t="n">
+        <v>4895.833333333333</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -20324,7 +21998,11 @@
           <t>full stack developer, architect, lead</t>
         </is>
       </c>
-      <c r="I389" t="inlineStr"/>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J389" t="n">
         <v>4500</v>
       </c>
@@ -20336,6 +22014,9 @@
       </c>
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr"/>
+      <c r="O389" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -20372,7 +22053,11 @@
           <t>Ohjelmistokehittäjä (mobiili)</t>
         </is>
       </c>
-      <c r="I390" t="inlineStr"/>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J390" t="n">
         <v>3750</v>
       </c>
@@ -20384,6 +22069,9 @@
       </c>
       <c r="M390" t="inlineStr"/>
       <c r="N390" t="inlineStr"/>
+      <c r="O390" t="n">
+        <v>4750</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -20420,7 +22108,11 @@
           <t>Asiantuntija</t>
         </is>
       </c>
-      <c r="I391" t="inlineStr"/>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J391" t="n">
         <v>5000</v>
       </c>
@@ -20432,6 +22124,9 @@
       </c>
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr"/>
+      <c r="O391" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -20488,6 +22183,9 @@
           <t>Vaikka merkitsin, että palkkani ei ole mielestäni kilpailukykyinen, se ei tarkoita ettenkö olisi siihen tyytyväinen. Tilanne yrittäjillä ei yleensä vastaa samaa kuin palkansaajilla, joten palkka ei ole yrittäjille monestikaan niin mustavalkoinen asia vaan kysymys on isommasta kuviosta.</t>
         </is>
       </c>
+      <c r="O392" t="n">
+        <v>3413</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -20524,7 +22222,11 @@
           <t>devops-konsultti</t>
         </is>
       </c>
-      <c r="I393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J393" t="n">
         <v>5300</v>
       </c>
@@ -20536,6 +22238,9 @@
       </c>
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr"/>
+      <c r="O393" t="n">
+        <v>5520.833333333333</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -20578,6 +22283,9 @@
       <c r="L394" t="inlineStr"/>
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr"/>
+      <c r="O394" t="n">
+        <v>3645.833333333333</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -20630,6 +22338,9 @@
       </c>
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr"/>
+      <c r="O395" t="n">
+        <v>3833.333333333333</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -20682,6 +22393,9 @@
       </c>
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr"/>
+      <c r="O396" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -20738,6 +22452,9 @@
           <t>Ennen koronaa oli osittainen etätyö, koronan jälkeen 100%</t>
         </is>
       </c>
+      <c r="O397" t="n">
+        <v>6175</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -20774,7 +22491,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I398" t="inlineStr"/>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J398" t="n">
         <v>3200</v>
       </c>
@@ -20786,6 +22507,9 @@
       </c>
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr"/>
+      <c r="O398" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -20838,6 +22562,9 @@
       </c>
       <c r="M399" t="inlineStr"/>
       <c r="N399" t="inlineStr"/>
+      <c r="O399" t="n">
+        <v>3125</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -20890,6 +22617,9 @@
       </c>
       <c r="M400" t="inlineStr"/>
       <c r="N400" t="inlineStr"/>
+      <c r="O400" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -20942,6 +22672,9 @@
       </c>
       <c r="M401" t="inlineStr"/>
       <c r="N401" t="inlineStr"/>
+      <c r="O401" t="n">
+        <v>7833.333333333333</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -20990,6 +22723,9 @@
       </c>
       <c r="M402" t="inlineStr"/>
       <c r="N402" t="inlineStr"/>
+      <c r="O402" t="n">
+        <v>5520.833333333333</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21042,6 +22778,9 @@
       </c>
       <c r="M403" t="inlineStr"/>
       <c r="N403" t="inlineStr"/>
+      <c r="O403" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21094,6 +22833,9 @@
       </c>
       <c r="M404" t="inlineStr"/>
       <c r="N404" t="inlineStr"/>
+      <c r="O404" t="n">
+        <v>8500</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21130,7 +22872,11 @@
           <t>Frontend &amp; UX</t>
         </is>
       </c>
-      <c r="I405" t="inlineStr"/>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J405" t="n">
         <v>5000</v>
       </c>
@@ -21144,6 +22890,7 @@
       </c>
       <c r="M405" t="inlineStr"/>
       <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21196,6 +22943,9 @@
       </c>
       <c r="M406" t="inlineStr"/>
       <c r="N406" t="inlineStr"/>
+      <c r="O406" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -21232,7 +22982,11 @@
           <t>Full stack</t>
         </is>
       </c>
-      <c r="I407" t="inlineStr"/>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J407" t="n">
         <v>3200</v>
       </c>
@@ -21244,6 +22998,9 @@
       </c>
       <c r="M407" t="inlineStr"/>
       <c r="N407" t="inlineStr"/>
+      <c r="O407" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -21300,6 +23057,9 @@
         </is>
       </c>
       <c r="N408" t="inlineStr"/>
+      <c r="O408" t="n">
+        <v>2708.333333333333</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -21348,6 +23108,9 @@
       </c>
       <c r="M409" t="inlineStr"/>
       <c r="N409" t="inlineStr"/>
+      <c r="O409" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -21396,6 +23159,9 @@
       </c>
       <c r="M410" t="inlineStr"/>
       <c r="N410" t="inlineStr"/>
+      <c r="O410" t="n">
+        <v>9166.666666666666</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -21428,7 +23194,11 @@
           <t>Ohjelmistosuunnittelija</t>
         </is>
       </c>
-      <c r="I411" t="inlineStr"/>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J411" t="n">
         <v>3800</v>
       </c>
@@ -21440,6 +23210,9 @@
       </c>
       <c r="M411" t="inlineStr"/>
       <c r="N411" t="inlineStr"/>
+      <c r="O411" t="n">
+        <v>4166.666666666667</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -21476,7 +23249,11 @@
           <t>Full-stack ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I412" t="inlineStr"/>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J412" t="n">
         <v>3900</v>
       </c>
@@ -21488,6 +23265,9 @@
       </c>
       <c r="M412" t="inlineStr"/>
       <c r="N412" t="inlineStr"/>
+      <c r="O412" t="n">
+        <v>4333.333333333333</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -21544,6 +23324,9 @@
         </is>
       </c>
       <c r="N413" t="inlineStr"/>
+      <c r="O413" t="n">
+        <v>8333.333333333334</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -21604,6 +23387,9 @@
           <t>Sijainti Pori, mutta etätöitä 100%. Varsinainen positio Tampere - Helsinki. Edut aika huonot, perusjutut. Työ itsessään aika masentavaa. Seuraavaksi varmaan freelance/yrittäjyys.</t>
         </is>
       </c>
+      <c r="O414" t="n">
+        <v>5416.666666666667</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -21656,6 +23442,9 @@
       </c>
       <c r="M415" t="inlineStr"/>
       <c r="N415" t="inlineStr"/>
+      <c r="O415" t="n">
+        <v>4583.333333333333</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -21708,6 +23497,9 @@
       </c>
       <c r="M416" t="inlineStr"/>
       <c r="N416" t="inlineStr"/>
+      <c r="O416" t="n">
+        <v>5783.333333333333</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -21764,6 +23556,9 @@
         </is>
       </c>
       <c r="N417" t="inlineStr"/>
+      <c r="O417" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -21800,7 +23595,11 @@
           <t>Ohjelmistokehittäjä</t>
         </is>
       </c>
-      <c r="I418" t="inlineStr"/>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J418" t="n">
         <v>4800</v>
       </c>
@@ -21815,6 +23614,9 @@
         <is>
           <t>Bonukset riippuu firman tuloksesta. Palkka olisi varmastikin enemmän muualla mutta uskoakseni linjassa kollegoideni kanssa.</t>
         </is>
+      </c>
+      <c r="O418" t="n">
+        <v>5416.666666666667</v>
       </c>
     </row>
     <row r="419">
@@ -21866,6 +23668,9 @@
       </c>
       <c r="M419" t="inlineStr"/>
       <c r="N419" t="inlineStr"/>
+      <c r="O419" t="n">
+        <v>4683.333333333333</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -21922,6 +23727,9 @@
         </is>
       </c>
       <c r="N420" t="inlineStr"/>
+      <c r="O420" t="n">
+        <v>7916.666666666667</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -21978,6 +23786,9 @@
         </is>
       </c>
       <c r="N421" t="inlineStr"/>
+      <c r="O421" t="n">
+        <v>7291.666666666667</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22034,6 +23845,9 @@
         </is>
       </c>
       <c r="N422" t="inlineStr"/>
+      <c r="O422" t="n">
+        <v>7916.666666666667</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22086,6 +23900,9 @@
       </c>
       <c r="M423" t="inlineStr"/>
       <c r="N423" t="inlineStr"/>
+      <c r="O423" t="n">
+        <v>4895.833333333333</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22138,6 +23955,9 @@
       </c>
       <c r="M424" t="inlineStr"/>
       <c r="N424" t="inlineStr"/>
+      <c r="O424" t="n">
+        <v>3125</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22192,6 +24012,9 @@
         </is>
       </c>
       <c r="N425" t="inlineStr"/>
+      <c r="O425" t="n">
+        <v>4479.166666666667</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -22246,6 +24069,9 @@
       </c>
       <c r="M426" t="inlineStr"/>
       <c r="N426" t="inlineStr"/>
+      <c r="O426" t="n">
+        <v>8333.333333333334</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -22282,7 +24108,11 @@
           <t xml:space="preserve">Lead Software Engineer </t>
         </is>
       </c>
-      <c r="I427" t="inlineStr"/>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
       <c r="J427" t="n">
         <v>5500</v>
       </c>
@@ -22294,6 +24124,9 @@
       </c>
       <c r="M427" t="inlineStr"/>
       <c r="N427" t="inlineStr"/>
+      <c r="O427" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -22346,6 +24179,9 @@
       </c>
       <c r="M428" t="inlineStr"/>
       <c r="N428" t="inlineStr"/>
+      <c r="O428" t="n">
+        <v>6333.333333333333</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -22398,6 +24234,123 @@
       </c>
       <c r="M429" t="inlineStr"/>
       <c r="N429" t="inlineStr"/>
+      <c r="O429" t="n">
+        <v>4583.333333333333</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>44246.76441186343</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>6</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>1</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Tekninen asiantuntija/suunnittelija</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>3250</v>
+      </c>
+      <c r="K430" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L430" t="b">
+        <v>0</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>44246.77388896991</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Turku</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>12</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>1</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K431" t="n">
+        <v>37500</v>
+      </c>
+      <c r="L431" t="b">
+        <v>0</v>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="n">
+        <v>3125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O431"/>
+  <dimension ref="A1:O458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24352,6 +24352,1499 @@
         <v>3125</v>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>44246.79140840278</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>5</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>1</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>4200</v>
+      </c>
+      <c r="K432" t="n">
+        <v>52500</v>
+      </c>
+      <c r="L432" t="b">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+      <c r="N432" t="inlineStr"/>
+      <c r="O432" t="n">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>44246.80164439815</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Vaasa</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>20</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>1</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>4250</v>
+      </c>
+      <c r="K433" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L433" t="b">
+        <v>0</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="n">
+        <v>4583.333333333333</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>44246.82285515047</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Turku</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>21-25 v</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>2</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
+        <v>3300</v>
+      </c>
+      <c r="K434" t="n">
+        <v>41250</v>
+      </c>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="n">
+        <v>3437.5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>44246.87332728009</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>6</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Lead developer</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J435" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K435" t="n">
+        <v>56250</v>
+      </c>
+      <c r="L435" t="b">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+      <c r="N435" t="inlineStr"/>
+      <c r="O435" t="n">
+        <v>4687.5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>44246.87344513889</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>6</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>1</v>
+      </c>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J436" t="n">
+        <v>4250</v>
+      </c>
+      <c r="K436" t="n">
+        <v>53000</v>
+      </c>
+      <c r="L436" t="b">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="n">
+        <v>4416.666666666667</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>44246.90860390046</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>21-25 v</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>2</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Ful-stack kehittäjä front-end painolla</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>3300</v>
+      </c>
+      <c r="K437" t="n">
+        <v>41250</v>
+      </c>
+      <c r="L437" t="b">
+        <v>0</v>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>Bitwise Oy</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr"/>
+      <c r="O437" t="n">
+        <v>3437.5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>44247.27491872685</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>7</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>1</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Full-Stack</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>6750</v>
+      </c>
+      <c r="K438" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L438" t="b">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+      <c r="N438" t="inlineStr"/>
+      <c r="O438" t="n">
+        <v>7083.333333333333</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>44247.34909702546</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>5</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>1</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Konsultti / Full stack / Tech lead</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J439" t="n">
+        <v>9300</v>
+      </c>
+      <c r="K439" t="n">
+        <v>115000</v>
+      </c>
+      <c r="L439" t="b">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>Mavericks Software Oy</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="n">
+        <v>9583.333333333334</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>44247.39400061343</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>16</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>1</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä (full-stack)</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J440" t="n">
+        <v>4070</v>
+      </c>
+      <c r="K440" t="n">
+        <v>50875</v>
+      </c>
+      <c r="L440" t="b">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="n">
+        <v>4239.583333333333</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>44247.4519371412</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>4</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Fullstack developer</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J441" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K441" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L441" t="b">
+        <v>0</v>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>Futurice</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="n">
+        <v>3416.666666666667</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>44247.54319644676</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Jyväskylä</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>16</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>1</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>full-stack ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J442" t="n">
+        <v>4850</v>
+      </c>
+      <c r="K442" t="n">
+        <v>60500</v>
+      </c>
+      <c r="L442" t="b">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="n">
+        <v>5041.666666666667</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>44247.59054137731</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>13</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>1</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K443" t="n">
+        <v>93750</v>
+      </c>
+      <c r="L443" t="b">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>Mavericks</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="n">
+        <v>7812.5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>44247.7031254051</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Turku</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>51-55 v</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>25</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>1</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Ohjelmistonkehittäjä</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>3980</v>
+      </c>
+      <c r="K444" t="n">
+        <v>49750</v>
+      </c>
+      <c r="L444" t="b">
+        <v>0</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="n">
+        <v>4145.833333333333</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>44247.75843981482</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Tallinna</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>24</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Yrittäjä</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>1</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>CTO/Founder/Kooderi</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K445" t="n">
+        <v>300000</v>
+      </c>
+      <c r="L445" t="b">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>44247.80978547454</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>8</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Full-stack</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>130000</v>
+      </c>
+      <c r="L446" t="b">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="n">
+        <v>10833.33333333333</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>44247.87873675926</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>13</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>165000</v>
+      </c>
+      <c r="L447" t="b">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="n">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>44247.88749210648</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>10</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Software Architect</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K448" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L448" t="b">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>Compile Oy</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="n">
+        <v>8333.333333333334</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>44247.95472815972</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>7</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Project manager</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K449" t="n">
+        <v>47500</v>
+      </c>
+      <c r="L449" t="b">
+        <v>0</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="n">
+        <v>3958.333333333333</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>44248.49304268519</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>5</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K450" t="n">
+        <v>64000</v>
+      </c>
+      <c r="L450" t="b">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="n">
+        <v>5333.333333333333</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>44248.55438332176</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>10</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>1</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Cloud Architect</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K451" t="n">
+        <v>62500</v>
+      </c>
+      <c r="L451" t="b">
+        <v>0</v>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>Konsulttitalo</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr"/>
+      <c r="O451" t="n">
+        <v>5208.333333333333</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>44248.71464697917</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>10</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>1</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>data engineering, team lead</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K452" t="n">
+        <v>71500</v>
+      </c>
+      <c r="L452" t="b">
+        <v>0</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+      <c r="N452" t="inlineStr"/>
+      <c r="O452" t="n">
+        <v>5958.333333333333</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>44248.77370258102</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>21-25 v</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>1</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Frontend</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K453" t="n">
+        <v>31200</v>
+      </c>
+      <c r="L453" t="b">
+        <v>0</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+      <c r="N453" t="inlineStr"/>
+      <c r="O453" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>44248.96108387732</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>22</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Yrittäjä</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Full-stack</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K454" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L454" t="b">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="n">
+        <v>7083.333333333333</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>44249.31470427084</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Hämeenlinna</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="n">
+        <v>5</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K455" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L455" t="b">
+        <v>0</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+      <c r="N455" t="inlineStr"/>
+      <c r="O455" t="n">
+        <v>2083.333333333333</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>44249.32453216436</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>12</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Sovelluskehittäjä</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K456" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L456" t="b">
+        <v>0</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>Pieni firma ja paljon hattuja päässä. Palkka on hyvä, mutta ei korvaa stressiä ja painetta.</t>
+        </is>
+      </c>
+      <c r="O456" t="n">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>44249.40915908565</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Lontoo</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>17</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K457" t="n">
+        <v>200000</v>
+      </c>
+      <c r="L457" t="b">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+      <c r="N457" t="inlineStr"/>
+      <c r="O457" t="n">
+        <v>16666.66666666667</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>44249.41863556713</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>3</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J458" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K458" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L458" t="b">
+        <v>0</v>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>Siili Solutions Oyj</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr"/>
+      <c r="O458" t="n">
+        <v>3333.333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O458"/>
+  <dimension ref="A1:O461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25845,6 +25845,179 @@
         <v>3333.333333333333</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>44249.44215363426</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>20</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Yrittäjä</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K459" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L459" t="b">
+        <v>0</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>hyvä kysely</t>
+        </is>
+      </c>
+      <c r="O459" t="n">
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>44249.46080728009</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>10</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>1</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>3858</v>
+      </c>
+      <c r="K460" t="n">
+        <v>48225</v>
+      </c>
+      <c r="L460" t="b">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>Wakeone</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="n">
+        <v>4018.75</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>44249.46215032407</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>12</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>1</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myynnistä vastaava </t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>8200</v>
+      </c>
+      <c r="K461" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L461" t="b">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="n">
+        <v>8333.333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O461"/>
+  <dimension ref="A1:O469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26018,6 +26018,450 @@
         <v>8333.333333333334</v>
       </c>
     </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>44249.53087737269</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>15</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>fullstack-ohjelmistokehittä / arkkitehti / pilviveikko</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>5700</v>
+      </c>
+      <c r="K462" t="n">
+        <v>70000</v>
+      </c>
+      <c r="L462" t="b">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="n">
+        <v>5833.333333333333</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>44249.53103743056</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>7</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>1</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Backend</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J463" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K463" t="n">
+        <v>47500</v>
+      </c>
+      <c r="L463" t="b">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+      <c r="N463" t="inlineStr"/>
+      <c r="O463" t="n">
+        <v>3958.333333333333</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>44249.53438325231</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>5</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>1</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Mobiilikehittäjä</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J464" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K464" t="n">
+        <v>56250</v>
+      </c>
+      <c r="L464" t="b">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+      <c r="N464" t="inlineStr"/>
+      <c r="O464" t="n">
+        <v>4687.5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>44249.5357290625</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>5</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>1</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Web developer</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J465" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K465" t="n">
+        <v>37500</v>
+      </c>
+      <c r="L465" t="b">
+        <v>0</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>Kokemusta kokonaisuudessaan 7v, mutta siitä reilut kaksi vuotta lasten kanssa kotona koodaamatta.</t>
+        </is>
+      </c>
+      <c r="O465" t="n">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>44249.53759880787</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>9</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>1</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Tuotepäällikkö</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J466" t="n">
+        <v>5500</v>
+      </c>
+      <c r="K466" t="n">
+        <v>82500</v>
+      </c>
+      <c r="L466" t="b">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+      <c r="N466" t="inlineStr"/>
+      <c r="O466" t="n">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>44249.54394976852</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>5</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>1</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Lead front end dev</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>4200</v>
+      </c>
+      <c r="K467" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L467" t="b">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+      <c r="N467" t="inlineStr"/>
+      <c r="O467" t="n">
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>44249.56513866898</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>0</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>harjoittelija</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J468" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K468" t="n">
+        <v>27500</v>
+      </c>
+      <c r="L468" t="b">
+        <v>0</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+      <c r="N468" t="inlineStr"/>
+      <c r="O468" t="n">
+        <v>2291.666666666667</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>44249.59106795139</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>8</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Senior Backend Developer</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>4800</v>
+      </c>
+      <c r="K469" t="n">
+        <v>59000</v>
+      </c>
+      <c r="L469" t="b">
+        <v>0</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+      <c r="N469" t="inlineStr"/>
+      <c r="O469" t="n">
+        <v>4916.666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O469"/>
+  <dimension ref="A1:O470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26462,6 +26462,61 @@
         <v>4916.666666666667</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>44249.79080961805</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>15</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Teknologiajohtaja</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J470" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K470" t="n">
+        <v>220000</v>
+      </c>
+      <c r="L470" t="b">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+      <c r="N470" t="inlineStr"/>
+      <c r="O470" t="n">
+        <v>18333.33333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O470"/>
+  <dimension ref="A1:O471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26517,6 +26517,61 @@
         <v>18333.33333333333</v>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>44249.99528059028</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>8</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>1</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>senior game developer</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J471" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K471" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L471" t="b">
+        <v>0</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+      <c r="N471" t="inlineStr"/>
+      <c r="O471" t="n">
+        <v>4166.666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O471"/>
+  <dimension ref="A1:O475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26572,6 +26572,240 @@
         <v>4166.666666666667</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>44250.37107162037</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>3</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>1</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J472" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K472" t="n">
+        <v>43750</v>
+      </c>
+      <c r="L472" t="b">
+        <v>0</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+      <c r="N472" t="inlineStr"/>
+      <c r="O472" t="n">
+        <v>3645.833333333333</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>44250.41420712963</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>8</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>full-stack conslut</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J473" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K473" t="n">
+        <v>70000</v>
+      </c>
+      <c r="L473" t="b">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>keskikokoinen konsulttifirma</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="n">
+        <v>5833.333333333333</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>44250.42531438657</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>14</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Front-end Developer</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>4695,70</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>58696,25</t>
+        </is>
+      </c>
+      <c r="L474" t="b">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+      <c r="N474" t="inlineStr"/>
+      <c r="O474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>44250.44663758102</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>9</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>1</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>ohjelmistokehittäjä/konsultti (senior, full-stack)</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>3926</v>
+      </c>
+      <c r="K475" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L475" t="b">
+        <v>0</v>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>Vincit</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>Olen firmaan, sen etuihin ja työilmapiiriin tyytyväinen.</t>
+        </is>
+      </c>
+      <c r="O475" t="n">
+        <v>4166.666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O475"/>
+  <dimension ref="A1:O479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26806,6 +26806,226 @@
         <v>4166.666666666667</v>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>44250.52867532407</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Turku</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>5</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>1</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K476" t="n">
+        <v>56250</v>
+      </c>
+      <c r="L476" t="b">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+      <c r="N476" t="inlineStr"/>
+      <c r="O476" t="n">
+        <v>4687.5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>44250.53582746528</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Hanksalmi</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>2</v>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="G477" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K477" t="n">
+        <v>13750</v>
+      </c>
+      <c r="L477" t="b">
+        <v>0</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+      <c r="N477" t="inlineStr"/>
+      <c r="O477" t="n">
+        <v>1145.833333333333</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>44250.54700111111</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>4</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>1</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Fullstaxk</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K478" t="n">
+        <v>58000</v>
+      </c>
+      <c r="L478" t="b">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+      <c r="N478" t="inlineStr"/>
+      <c r="O478" t="n">
+        <v>4833.333333333333</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>44250.58376354167</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>5</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>1</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Senior/Lead developer</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J479" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K479" t="n">
+        <v>52000</v>
+      </c>
+      <c r="L479" t="b">
+        <v>0</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+      <c r="N479" t="inlineStr"/>
+      <c r="O479" t="n">
+        <v>4333.333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O479"/>
+  <dimension ref="A1:O480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27026,6 +27026,53 @@
         <v>4333.333333333333</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>44250.6797729051</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="n">
+        <v>10</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>1</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J480" t="n">
+        <v>4250</v>
+      </c>
+      <c r="K480" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L480" t="b">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O480"/>
+  <dimension ref="A1:O481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27073,6 +27073,63 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>44250.90149023148</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Nokia</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>6</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Yrittäjä</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>1</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Full Stack Web Developer / CEO</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L481" t="b">
+        <v>0</v>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>Tuspe Design Oy</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="n">
+        <v>2250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O481"/>
+  <dimension ref="A1:O484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27130,6 +27130,171 @@
         <v>2250</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>44251.63873288195</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Mikkeli</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>7</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Full-stack</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J482" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K482" t="n">
+        <v>37500</v>
+      </c>
+      <c r="L482" t="b">
+        <v>0</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="n">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>44251.67329790509</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>2</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J483" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K483" t="n">
+        <v>43750</v>
+      </c>
+      <c r="L483" t="b">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="n">
+        <v>3645.833333333333</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>44251.72843862268</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Kuopio</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>21-25 v</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>2</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>frontend</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J484" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K484" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L484" t="b">
+        <v>0</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+      <c r="N484" t="inlineStr"/>
+      <c r="O484" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O484"/>
+  <dimension ref="A1:O485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27295,6 +27295,61 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>44251.99261854167</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>2</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>1</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä (frontend)</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J485" t="n">
+        <v>2860</v>
+      </c>
+      <c r="K485" t="n">
+        <v>35850</v>
+      </c>
+      <c r="L485" t="b">
+        <v>0</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+      <c r="N485" t="inlineStr"/>
+      <c r="O485" t="n">
+        <v>2987.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O485"/>
+  <dimension ref="A1:O489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5737,11 +5737,7 @@
       <c r="L96" t="b">
         <v>1</v>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>UpCloud</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="n">
         <v>6250</v>
@@ -27350,6 +27346,214 @@
         <v>2987.5</v>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>44252.39917092593</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Kuopio</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>6</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>1</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä, Tech Lead</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J486" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K486" t="n">
+        <v>56250</v>
+      </c>
+      <c r="L486" t="b">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="n">
+        <v>4687.5</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>44252.45395695602</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>6</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>1</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K487" t="n">
+        <v>64000</v>
+      </c>
+      <c r="L487" t="b">
+        <v>0</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+      <c r="N487" t="inlineStr"/>
+      <c r="O487" t="n">
+        <v>5333.333333333333</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>44252.46478008102</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>3</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>1</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Fullstack ja pientä devops tunkkia</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K488" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L488" t="b">
+        <v>0</v>
+      </c>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="n">
+        <v>3666.666666666667</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>44252.46576761574</v>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="n">
+        <v>15</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G489" t="n">
+        <v>1</v>
+      </c>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>5200</v>
+      </c>
+      <c r="K489" t="n">
+        <v>68000</v>
+      </c>
+      <c r="L489" t="b">
+        <v>0</v>
+      </c>
+      <c r="M489" t="inlineStr"/>
+      <c r="N489" t="inlineStr"/>
+      <c r="O489" t="n">
+        <v>5666.666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O489"/>
+  <dimension ref="A1:O491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27554,6 +27554,120 @@
         <v>5666.666666666667</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>44252.52359363426</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>26-30 v</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>5</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G490" t="n">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Full-stack developer</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>5500</v>
+      </c>
+      <c r="K490" t="n">
+        <v>68000</v>
+      </c>
+      <c r="L490" t="b">
+        <v>1</v>
+      </c>
+      <c r="M490" t="inlineStr"/>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="n">
+        <v>5666.666666666667</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>44252.59065505787</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>21-25 v</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>muu</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>1</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G491" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Systems Administrator ja firmän sisäinen 1st line -tukihessu</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>1081</v>
+      </c>
+      <c r="K491" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L491" t="b">
+        <v>1</v>
+      </c>
+      <c r="M491" t="inlineStr"/>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>Kk-palkkani on varsinkin vaihteleva, koska riippuu vuorolisistä (mahdollisista pyhä- ja yövuoroista ja tuurauksista). Jonkinlaisen oletuksen nyt yritin lyödä vuositulolle, mutta taitaa jäädä todellisuudessa hivenen sen alle.</t>
+        </is>
+      </c>
+      <c r="O491" t="n">
+        <v>1166.666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O491"/>
+  <dimension ref="A1:O492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27668,6 +27668,61 @@
         <v>1166.666666666667</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>44252.88722596065</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>10</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Full-stack ohjemistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>4600</v>
+      </c>
+      <c r="K492" t="n">
+        <v>58000</v>
+      </c>
+      <c r="L492" t="b">
+        <v>1</v>
+      </c>
+      <c r="M492" t="inlineStr"/>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="n">
+        <v>4833.333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O492"/>
+  <dimension ref="A1:O493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27723,6 +27723,65 @@
         <v>4833.333333333333</v>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>44253.39791409722</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>46-50 v</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>21</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Backend-koodari</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K493" t="n">
+        <v>70000</v>
+      </c>
+      <c r="L493" t="b">
+        <v>1</v>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>Nokia</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="n">
+        <v>5833.333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O493"/>
+  <dimension ref="A1:O494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Digia Oyj</t>
+          <t>Digiaj</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Compile Oy</t>
+          <t>Compile</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Gofore Oyj</t>
+          <t>Goforej</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Verkkokauppa.com Oyj</t>
+          <t>Verkkokauppa.comj</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>SurviveJS Oy</t>
+          <t>SurviveJS</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Digitoimisto Dude Oy</t>
+          <t>Digitoimisto Dude</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Gofore Oyj</t>
+          <t>Goforej</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Columbia Road Oy</t>
+          <t>Columbia Road</t>
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Zure Oy</t>
+          <t>Zure</t>
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Telia Cygate Oy</t>
+          <t>Telia Cygate</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
@@ -17576,7 +17576,7 @@
       <c r="L309" t="inlineStr"/>
       <c r="M309" t="inlineStr">
         <is>
-          <t xml:space="preserve">KVTES-alainen kunnan omistama oy </t>
+          <t xml:space="preserve">KVTES-alainen kunnan omistama </t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -18360,7 +18360,7 @@
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr">
         <is>
-          <t xml:space="preserve">KVTES-alainen kunnan omistama oy </t>
+          <t xml:space="preserve">KVTES-alainen kunnan omistama </t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -21733,7 +21733,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Rare Agency Oy</t>
+          <t>Rare Agency</t>
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>Bitwise Oy</t>
+          <t>Bitwise</t>
         </is>
       </c>
       <c r="N437" t="inlineStr"/>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>Mavericks Software Oy</t>
+          <t>Mavericks Software</t>
         </is>
       </c>
       <c r="N439" t="inlineStr"/>
@@ -25275,7 +25275,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>Compile Oy</t>
+          <t>Compile</t>
         </is>
       </c>
       <c r="N448" t="inlineStr"/>
@@ -25833,7 +25833,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>Siili Solutions Oyj</t>
+          <t>Siili Solutionsj</t>
         </is>
       </c>
       <c r="N458" t="inlineStr"/>
@@ -27118,7 +27118,7 @@
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>Tuspe Design Oy</t>
+          <t>Tuspe Design</t>
         </is>
       </c>
       <c r="N481" t="inlineStr"/>
@@ -27782,6 +27782,65 @@
         <v>5833.333333333333</v>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>44253.51133907407</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>36-40 v</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>15</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Ohjelmistosuunnittelija</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J494" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K494" t="n">
+        <v>53750</v>
+      </c>
+      <c r="L494" t="b">
+        <v>0</v>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>Gofore</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="n">
+        <v>4479.166666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O494"/>
+  <dimension ref="A1:O498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27841,6 +27841,228 @@
         <v>4479.166666666667</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>44253.51518861111</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>11</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>frontend</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>157300</v>
+      </c>
+      <c r="L495" t="b">
+        <v>1</v>
+      </c>
+      <c r="M495" t="inlineStr"/>
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="n">
+        <v>13108.33333333333</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44253.53237736111</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>11</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Arkkitehti</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K496" t="n">
+        <v>81250</v>
+      </c>
+      <c r="L496" t="b">
+        <v>1</v>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>Siili</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="n">
+        <v>6770.833333333333</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>44253.53294115741</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>3</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>1</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Full-stack</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L497" t="b">
+        <v>0</v>
+      </c>
+      <c r="M497" t="inlineStr"/>
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>44253.55874591435</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>PK-Seutu</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Ohjelmistokehittäjä</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>50/50</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L498" t="b">
+        <v>1</v>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>Vincit</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="n">
+        <v>6250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O498"/>
+  <dimension ref="A1:O499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28063,6 +28063,61 @@
         <v>6250</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>44253.68645844908</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>41-45 v</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>20</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>1</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>full-stack</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>Toimisto</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>4800</v>
+      </c>
+      <c r="K499" t="n">
+        <v>61000</v>
+      </c>
+      <c r="L499" t="b">
+        <v>1</v>
+      </c>
+      <c r="M499" t="inlineStr"/>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="n">
+        <v>5083.333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O499"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28118,6 +28118,116 @@
         <v>5083.333333333333</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>44254.52639768519</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>9</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>1</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>backend ja devops</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>4270</v>
+      </c>
+      <c r="K500" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L500" t="b">
+        <v>0</v>
+      </c>
+      <c r="M500" t="inlineStr"/>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>44254.74264802083</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Kouvola</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>31-35 v</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>2</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Työntekijä / palkollinen</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>1</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Full-stack Ohjelmistosuunnittelija</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>Etä</t>
+        </is>
+      </c>
+      <c r="J501" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K501" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L501" t="b">
+        <v>0</v>
+      </c>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="n">
+        <v>2916.666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
